--- a/doc/商品列表.xlsx
+++ b/doc/商品列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\project\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="167">
   <si>
     <t>gid</t>
   </si>
@@ -172,9 +177,6 @@
     <t>./../img/dog_list_img/8d91be026a1d537a636cd4c9770cc68d.jpg@!60w-c</t>
   </si>
   <si>
-    <t>5kg</t>
-  </si>
-  <si>
     <t>51.81元/斤</t>
   </si>
   <si>
@@ -188,20 +190,777 @@
   </si>
   <si>
     <t>./../img/dog_list_img/</t>
+  </si>
+  <si>
+    <t>38.12元/斤</t>
+  </si>
+  <si>
+    <t>美国原装进口 雅思ARTEMIS 中/大型犬配方全期犬粮 4磅(1.81kg)</t>
+  </si>
+  <si>
+    <t>Fresh Mix系列 新鲜食材 小批量生产 易消 美国原装进口 雅思ARTEMIS 中/大型犬配方全期犬粮 4磅(1.81kg) 4磅</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e71e9107afe4d2c1bfb4c7324dfa4fdc.jpg@!200w-c"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4磅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./../img/dog_list_img/a5b3b8bc1114ddffce177d007b6346a9.jpg@!water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1e39bb8bc2bd8b4fbf545df759d6cfa9.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a5b3b8bc1114ddffce177d007b6346a9.jpg@!water</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.75元/斤</t>
+  </si>
+  <si>
+    <t>优基 益生菌中大型成犬粮 2kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活力益生菌 调节狗狗肠胃问题 优基 益生菌中大型成犬粮 2kg </t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37bdea23600c0baa56688a42a512f611.jpg@!200w-c"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a5b3b8bc1114ddffce177d007b6346a9.jpg@!water</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大原装进口 Orijen渴望狗粮 大型犬幼犬配方狗粮 6kg</t>
+  </si>
+  <si>
+    <t>加拿大原装进口 Orijen渴望狗粮 大型犬幼犬配方狗粮 6kg 6kg</t>
+  </si>
+  <si>
+    <t>8磅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.66元/斤</t>
+  </si>
+  <si>
+    <t>比瑞吉 健康型天然粮 小型犬幼犬粮 1.5kg</t>
+  </si>
+  <si>
+    <t>泰迪贵宾比熊雪纳瑞专用 易消化 优排便 亮毛发 比瑞吉 健康型天然粮 小型犬幼犬粮 1.5kg 1.5kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8cf74fb7b95920cb6ca6a402221e61e3.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.25元/斤</t>
+  </si>
+  <si>
+    <t>麦富迪 牛肉双拼系列 贵宾专用牛肉双拼成犬粮 2kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美味双拼 味觉享受 营养搭配 麦富迪 牛肉双拼系列 贵宾专用牛肉双拼成犬粮 2kg </t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24f86d3a9818329140b3f53dd37e1c6f.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10磅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c3a4e8a1236e7e88c41570eac6a1aed1.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯纳天纯 天然低敏 中大型犬 幼犬粮 拆零500g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亮泽被毛 强化免疫 益智明目 促进骨骼牙齿生长 伯纳天纯 天然低敏 中大型犬 幼犬粮 拆零500g </t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fd96cf3b30a79397fb99fdfdf3d9ae0e.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.29元/斤</t>
+  </si>
+  <si>
+    <t>冠能大型犬幼犬全价犬粮 12kg</t>
+  </si>
+  <si>
+    <t>雀巢旗下犬粮 经典配方 助消化 促成长 冠能大型犬幼犬全价犬粮 12kg 12kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7dd229ee03e407cdeb9a72f502c68a6c.jpg@!200w-c"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.75元/斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">醇粹Purich 低温烘焙小型犬奶糕 / 幼犬粮 2kg </t>
+  </si>
+  <si>
+    <t>12月龄以下小型犬 肉含量超过70% 醇粹Purich 低温烘焙小型犬奶糕 / 幼犬粮 2kg 2kg</t>
+  </si>
+  <si>
+    <t>2kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5012c2552ccf6005a5a7a775e3207a68.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.80元/斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝氏LegendSandy 牛肉金枪鱼全犬粮 9磅(4.08kg) </t>
+  </si>
+  <si>
+    <t>缓解泪痕 美毛亮毛 不含低敏感源 调节肠胃 提高免 蓝氏LegendSandy 牛肉金枪鱼全犬粮 9磅(4.08kg) 9磅</t>
+  </si>
+  <si>
+    <t>9磅</t>
+  </si>
+  <si>
+    <t>20.96元/斤</t>
+  </si>
+  <si>
+    <t>美国原装进口 雅思ARTEMIS 火鸡鹰嘴豆配方全犬粮 22磅(9.97kg)</t>
+  </si>
+  <si>
+    <t>WDJ推荐 无谷系列 小批量生产 单一动物蛋白 低 美国原装进口 雅思ARTEMIS 火鸡鹰嘴豆配方全犬粮 22磅(9.97kg) 22磅</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15751952f34a1024287194ab8901e53b.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22磅</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38e639d19eb92ff027f9e057ddfe7062.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.00元/斤</t>
+  </si>
+  <si>
+    <t>澳大利亚丝倍亮Supercoat 成犬全价犬粮 1.5kg</t>
+  </si>
+  <si>
+    <t>雀巢旗下口碑犬粮 科学配方 均衡营养 呵护皮毛 澳大利亚丝倍亮Supercoat 成犬全价犬粮 1.5kg 1.5kg</t>
+  </si>
+  <si>
+    <t>1.5kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c7832a770de1a2c32f4f35c4bf330f22.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.00元/斤</t>
+  </si>
+  <si>
+    <t>宝路 金装幼犬干粮 牛肉味 2kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专为幼犬研制 添加优质蛋白 合理钙磷比 强壮骨骼 宝路 金装幼犬干粮 牛肉味 2kg </t>
+  </si>
+  <si>
+    <t>./../img/dog_list_img/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1c43badbc6e361591b0d4ce59e638a7.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0kg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.65元/斤</t>
+  </si>
+  <si>
+    <t>美国原装进口天衡宝(原雪山) 限定系列 鸭薯配方成犬粮 26磅</t>
+  </si>
+  <si>
+    <t>中国B2C平台战略合作伙伴 无谷天然粮 告别敏感泪 美国原装进口天衡宝(原雪山) 限定系列 鸭薯配方成犬粮 26磅 26磅</t>
+  </si>
+  <si>
+    <t>26磅</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2bbdd96400a7e0c10d2cd99cecb95bcb.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.25元/斤</t>
+  </si>
+  <si>
+    <t>优卡EuKanuba 小型犬幼犬粮 20kg</t>
+  </si>
+  <si>
+    <t>深海鱼油配方 均衡营养 美毛犬粮 亚太区总厂新鲜直 优卡EuKanuba 小型犬幼犬粮 20kg 20kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d2c9f4e8542164714d0dea1b73dc2ea4.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.75元/斤</t>
+  </si>
+  <si>
+    <t>【保质期至2017-12-10】加拿大原装进口 爱肯拿Acana 六星无谷深海鱼配方全犬粮 2kg</t>
+  </si>
+  <si>
+    <t>加拿大渴望狗粮同厂出品 原装进口 增加含肉量 低过 【保质期至2017-12-10】加拿大原装进口 爱肯拿Acana 六星无谷深海鱼配方全犬粮 2kg 2kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15e5315aa6ec7444852171fae890a768.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0kg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a5b3b8bc1114ddffce177d007b6346a9.jpg@!water</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.50元/斤</t>
+  </si>
+  <si>
+    <t>加拿大原装进口 Orijen渴望狗粮 爱犬红肉配方全犬粮 6kg</t>
+  </si>
+  <si>
+    <t>加拿大原装进口 丰富多样化的肉类 无任何化学添加 加拿大原装进口 Orijen渴望狗粮 爱犬红肉配方全犬粮 6kg 6kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5469a79e4b1c50b1361f7bd2ee2de2d2.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.00元/斤</t>
+  </si>
+  <si>
+    <t>【保质期至2017-12-08】加拿大原装进口 Orijen渴望狗粮 无谷成犬配方 6kg</t>
+  </si>
+  <si>
+    <t>【限量秒杀 479元 加入购物车自动改价】80%肉 【保质期至2017-12-08】加拿大原装进口 Orijen渴望狗粮 无谷成犬配方 6kg 6kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>286bf32ac5ec5cf40c63a9f6a9d18f62.jpg@!water</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed5bc3bc26caca36bdf0ad1f5eef7678.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.66元/斤</t>
+  </si>
+  <si>
+    <t>英国原装进口 海洋之星 深海鱼成犬粮 小颗粒 1.5kg</t>
+  </si>
+  <si>
+    <t>英国原装进口 挪威深海鱼 抗敏感美毛无谷天然粮 英国原装进口 海洋之星 深海鱼成犬粮 小颗粒 1.5kg 1.5kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8f325bf362f2d39377d8587f743ed45d.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.00元/斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皇家royal canin MIS30小型犬奶糕/怀孕母犬/哺乳母犬3kg </t>
+  </si>
+  <si>
+    <t>高蛋白子母粮 均衡营养 健肤亮毛 皇家royal canin MIS30小型犬奶糕/怀孕母犬/哺乳母犬3kg 3kg</t>
+  </si>
+  <si>
+    <t>3kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8bcc5ee8c30dadf4e2ac3d243284e313.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.66元/斤</t>
+  </si>
+  <si>
+    <t>喜乐比SharlovY 鸡肉蔬果配方成犬健康粮1.5kg</t>
+  </si>
+  <si>
+    <t>来自台湾艾澌克 荤素搭配 营养均衡 喜乐比SharlovY 鸡肉蔬果配方成犬健康粮1.5kg 1.5kg</t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4fb7eb2939505a9c82a010ef13fdc85d.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.93元/斤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷米高 澳宝 鸡肉中草药蔬菜营养成犬粮 15kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">澳宝升级经典系列 中药精华 健护肠胃 新老包装随机 雷米高 澳宝 鸡肉中草药蔬菜营养成犬粮 15kg </t>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>767d7a6fa90ae39212dc0e9c087cb524.jpg@!water</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./../img/dog_list_img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e43e994606cc02d6f5a6d99681d57d80.jpg@!200w-c</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.61元/斤</t>
+  </si>
+  <si>
+    <t>比利时进口 鱼子酱Canine Caviar 特殊需求配方犬粮(低敏/减肥/老犬) 24磅(10.88kg)</t>
+  </si>
+  <si>
+    <t>比利时进口 低脂肪低蛋白 维持体重和健康 比利时进口 鱼子酱Canine Caviar 特殊需求配方犬粮(低敏/减肥/老犬) 24磅(10.88kg) 24磅</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5kg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24磅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,348 +972,33 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -562,255 +1006,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,62 +1025,21 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1136,19 +1297,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="44.125" customWidth="1"/>
@@ -1159,7 +1320,7 @@
     <col min="11" max="11" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>184558</v>
       </c>
@@ -1238,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>171475</v>
       </c>
@@ -1276,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>139553</v>
       </c>
@@ -1314,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>105952</v>
       </c>
@@ -1352,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>107588</v>
       </c>
@@ -1381,7 +1542,7 @@
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>134</v>
@@ -1390,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>105825</v>
       </c>
@@ -1428,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>172012</v>
       </c>
@@ -1466,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>158478</v>
       </c>
@@ -1485,14 +1646,17 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
+      <c r="H9">
+        <v>11400</v>
+      </c>
       <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
-        <v>52</v>
+      <c r="J9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -1501,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>132749</v>
       </c>
@@ -1512,19 +1676,25 @@
         <v>399</v>
       </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10">
+        <v>3850</v>
+      </c>
+      <c r="I10" t="s">
         <v>55</v>
       </c>
-      <c r="I10" t="s">
-        <v>56</v>
+      <c r="J10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <v>22</v>
@@ -1533,104 +1703,839 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="9:11">
-      <c r="I11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>196072</v>
+      </c>
+      <c r="B11">
+        <v>165.6</v>
+      </c>
+      <c r="C11">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>1810</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="K11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="9:11">
-      <c r="I12" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="L11">
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>205722</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="9:11">
+        <v>71</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>107588</v>
+      </c>
+      <c r="B13">
+        <v>684</v>
+      </c>
+      <c r="C13">
+        <v>620</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>6000</v>
+      </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="9:11">
-      <c r="I14" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <v>146</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>117664</v>
+      </c>
+      <c r="B14">
+        <v>110.4</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="9:11">
-      <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <v>1350</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>168186</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="9:11">
-      <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>105</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>152430</v>
+      </c>
+      <c r="B16">
+        <v>20.5</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11">
-      <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L16">
+        <v>43</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>127618</v>
+      </c>
+      <c r="B17">
+        <v>708</v>
+      </c>
+      <c r="C17">
+        <v>559</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>12000</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11">
-      <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L17">
+        <v>95</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>154673</v>
+      </c>
+      <c r="B18">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11">
+        <v>56</v>
+      </c>
+      <c r="L18">
+        <v>289</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>117849</v>
+      </c>
+      <c r="B19">
+        <v>171.5</v>
+      </c>
+      <c r="C19">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>4080</v>
+      </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11">
+        <v>56</v>
+      </c>
+      <c r="L19">
+        <v>238</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>196067</v>
+      </c>
+      <c r="B20">
+        <v>501.6</v>
+      </c>
+      <c r="C20">
+        <v>418</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>9970</v>
+      </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11">
+        <v>71</v>
+      </c>
+      <c r="L20">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>184673</v>
+      </c>
+      <c r="B21">
+        <v>82.8</v>
+      </c>
+      <c r="C21">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21">
+        <v>1500</v>
+      </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11">
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>191962</v>
+      </c>
+      <c r="B22">
+        <v>76.8</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22">
+        <v>142</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>109836</v>
+      </c>
+      <c r="B23">
+        <v>754</v>
+      </c>
+      <c r="C23">
+        <v>628</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23">
+        <v>11780</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23">
+        <v>4705</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>119192</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1068</v>
+      </c>
+      <c r="C24">
+        <v>890</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24">
+        <v>20000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>120059</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25">
+        <v>410</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>150972</v>
+      </c>
+      <c r="B26">
+        <v>830</v>
+      </c>
+      <c r="C26">
+        <v>750</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26">
+        <v>6000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26">
+        <v>233</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>122868</v>
+      </c>
+      <c r="B27">
+        <v>670</v>
+      </c>
+      <c r="C27">
+        <v>600</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27">
+        <v>6000</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27">
+        <v>233</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>118508</v>
+      </c>
+      <c r="B28">
+        <v>160</v>
+      </c>
+      <c r="C28">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28">
+        <v>1500</v>
+      </c>
+      <c r="I28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28">
+        <v>216</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>105752</v>
+      </c>
+      <c r="B29">
+        <v>223.2</v>
+      </c>
+      <c r="C29">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29">
+        <v>3000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29">
+        <v>279</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>111496</v>
+      </c>
+      <c r="B30">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30">
+        <v>1500</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30">
+        <v>97</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>104813</v>
+      </c>
+      <c r="B31">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31">
+        <v>15000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31">
+        <v>445</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>113978</v>
+      </c>
+      <c r="B32">
+        <v>825.6</v>
+      </c>
+      <c r="C32">
+        <v>688</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32">
+        <v>10880</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32">
+        <v>44</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>